--- a/input/reg_RMSE.xlsx
+++ b/input/reg_RMSE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFAB6AE-AF73-467E-82AA-7927A16E683F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F019F217-8606-4580-9514-E6F1BFECDEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="UK" sheetId="2" r:id="rId2"/>
     <sheet name="IT" sheetId="3" r:id="rId3"/>
+    <sheet name="HU" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Date modified</t>
   </si>
@@ -134,7 +135,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +147,10 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,9 +170,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -179,11 +185,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1DD817D7-7369-4141-BA03-68811131D10D}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{DF1E013C-FD60-453A-B5B9-3ECA65F09C26}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530F7AD6-02C1-41F5-9B11-F88D7B76E795}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -619,66 +626,66 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>1.528311</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>1.1671</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>1.2093</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>0.98887999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>0.95128999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>0.84714999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>0.94330000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>1.2788999999999999</v>
       </c>
     </row>
@@ -794,4 +801,77 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B52D91-862E-459C-B8A1-E5C1A5D5C4F0}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.93612804771750313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.94686376540135364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.41369964379833796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.46915379886598663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1.0047416470996766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1.0352761099546386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/reg_RMSE.xlsx
+++ b/input/reg_RMSE.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F019F217-8606-4580-9514-E6F1BFECDEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0391599B-29A7-4275-A984-4F41344B94DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="UK" sheetId="2" r:id="rId2"/>
     <sheet name="IT" sheetId="3" r:id="rId3"/>
-    <sheet name="HU" sheetId="4" r:id="rId4"/>
+    <sheet name="PL" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -182,10 +182,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,46 +491,46 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -811,64 +811,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="20.28515625" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5">
-        <v>0.93612804771750313</v>
+      <c r="B2" s="4">
+        <v>0.93553296718914958</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.94686376540135364</v>
+      <c r="B3" s="4">
+        <v>0.89086026422674336</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.41369964379833796</v>
+      <c r="B4" s="4">
+        <v>0.40974616881083442</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.46915379886598663</v>
+      <c r="B5" s="4">
+        <v>0.45713021107178931</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
-        <v>1.0047416470996766</v>
+      <c r="B6" s="4">
+        <v>1.0259543542924621</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5">
-        <v>1.0352761099546386</v>
+      <c r="B7" s="4">
+        <v>1.0118989434177876</v>
       </c>
     </row>
   </sheetData>

--- a/input/reg_RMSE.xlsx
+++ b/input/reg_RMSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0391599B-29A7-4275-A984-4F41344B94DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA14B9C-2A05-4D78-A732-93217EE2FA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -472,14 +472,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +487,7 @@
         <v>44593</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -500,7 +500,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -508,7 +508,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -516,7 +516,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -524,7 +524,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -548,12 +548,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -561,7 +561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -569,7 +569,7 @@
         <v>0.5511963385465366</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -577,7 +577,7 @@
         <v>0.56378226458419012</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -585,7 +585,7 @@
         <v>0.3588496779494994</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -593,7 +593,7 @@
         <v>0.37499140584966989</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -601,7 +601,7 @@
         <v>2.4158001968775116</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -609,7 +609,7 @@
         <v>1.8361431734912119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -617,7 +617,7 @@
         <v>1.5969934128957666</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -625,7 +625,7 @@
         <v>884.81552442493353</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -633,7 +633,7 @@
         <v>1.528311</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -641,7 +641,7 @@
         <v>1.1671</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -649,7 +649,7 @@
         <v>1.2093</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -657,7 +657,7 @@
         <v>0.98887999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -665,7 +665,7 @@
         <v>0.95128999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -673,7 +673,7 @@
         <v>0.84714999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -681,7 +681,7 @@
         <v>0.94330000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -689,7 +689,7 @@
         <v>1.2788999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -708,9 +708,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -718,7 +718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -726,7 +726,7 @@
         <v>0.53371000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -734,7 +734,7 @@
         <v>0.64690999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -742,7 +742,7 @@
         <v>5.4573999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -750,7 +750,7 @@
         <v>3.2025999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -758,7 +758,7 @@
         <v>2.4695999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -766,7 +766,7 @@
         <v>1.5126999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -774,7 +774,7 @@
         <v>1.4134</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -782,7 +782,7 @@
         <v>1.1671</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -790,7 +790,7 @@
         <v>0.58166506869277523</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -809,13 +809,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="20.265625" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -823,52 +823,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4">
-        <v>0.93553296718914958</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.74221509613052516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4">
-        <v>0.89086026422674336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.71708781548177403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.40974616881083442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.39061084223695713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.45713021107178931</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.46531245128873866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
-        <v>1.0259543542924621</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1.0366469600587009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
-        <v>1.0118989434177876</v>
+      <c r="B7">
+        <v>1.0148370111449538</v>
       </c>
     </row>
   </sheetData>

--- a/input/reg_RMSE.xlsx
+++ b/input/reg_RMSE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA14B9C-2A05-4D78-A732-93217EE2FA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B48E2B-B07B-4C3F-B828-427C268AC08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,7 +828,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>0.74221509613052516</v>
+        <v>0.77710092075167148</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -836,7 +836,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>0.71708781548177403</v>
+        <v>0.80966819962611325</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -844,7 +844,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0.39061084223695713</v>
+        <v>0.40685676867032922</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -852,7 +852,7 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.46531245128873866</v>
+        <v>0.48603505601304164</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1.0366469600587009</v>
+        <v>1.0366294171387864</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -868,7 +868,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1.0148370111449538</v>
+        <v>1.0108885888661292</v>
       </c>
     </row>
   </sheetData>
